--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -575,7 +575,7 @@
         <v>45153.67613425926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44257</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44503.56430555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45709</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44509.81533564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45198</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44358</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44888.44524305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45954.35556712963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45611.45408564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45561.53494212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45754.47054398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46041.64318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>46045.31524305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45600.69313657407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45611.51743055556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44508.52543981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44693</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44621</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44292</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44491.4203125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44305</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44305</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44305</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44872</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44820</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44295.65550925926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44452.34550925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44503</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44687.41538194445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44868.32666666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44364.5219212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>44410.39246527778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44344</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44410.37859953703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44387.41002314815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44295.54322916667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44387.40186342593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>44364.46387731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44364.52861111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>44392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44879.30949074074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44879</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44879</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44789.66420138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44316</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44447.64010416667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44516.96689814814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44816</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44257</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44483.40068287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44426.60497685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>44257</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44347</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44347</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>44347.66645833333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44418.828125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>44515</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44789.61635416667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44538.66128472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44358.54587962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44364.50976851852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44347</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44728.63540509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44413</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44298</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>44650</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>44827.36936342593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>44743</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>44538.67136574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>44469</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44426.61268518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45432.71236111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45597.63475694445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44476.63773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45664.55375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44606.50606481481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44538</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45110.47314814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>45687.39680555555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>45091.31003472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45714.35248842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45596</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45707.67384259259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45355.6890162037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>45355.69916666667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>45665.5275925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44435.34016203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44796.61420138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45138</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>45665.52453703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>45666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44903</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>45701.62771990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45231</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>45208</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45887.40015046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45596</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45335.60815972222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45261</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45887</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45887.40671296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>45419.71474537037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>45889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>45889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45810.55401620371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45810.56383101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>45889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>45888.48699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45239.70010416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>45889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45475.56472222223</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>45278</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>45891</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>45701.65594907408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44887.57861111111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45236.73554398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45841.59689814815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45841.6000462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45901.32498842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45105.43216435185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45898.41444444445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44504.50583333334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45792</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45000.395</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45709</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45355.70752314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45414.50677083333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45699.6590625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45684.39659722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45902.46462962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>45170</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45170</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45422</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45821.31873842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44447.64655092593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45744.36665509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45909</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45909.62396990741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>45910</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45910.50778935185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44503.56642361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>45910.72665509259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45910</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44980.40126157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45917.34408564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45916.63203703704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45916.64399305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45916.65414351852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45916.68699074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45916.68157407407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45916.6724537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45916.67841435185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45916.63689814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45831.37353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45831.59747685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44831.35163194445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45916.36207175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45916.37061342593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44743</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45916.69100694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45831.38268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45831.39171296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45831.56633101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44417.81138888889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44417.81849537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45831.36127314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45831.36613425926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45831.60769675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45918.45743055556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45831.3944675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45831.56945601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45831.61119212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45831.60594907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45831</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45919.64219907407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45831.56362268519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45831.59186342593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45918.50056712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45918.65670138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45434.58760416666</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45218.52310185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45922</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45922</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45922.38804398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45922</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45925</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45924.60186342592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45216</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45216</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45194.40474537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45922</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45666.50974537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45925</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45924.5103125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45924.51642361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45926.57173611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45926.5803125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45614.56631944444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45119.55380787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44966.90767361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44480.34510416666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45926.57618055555</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45926.58402777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45839.55930555556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45931.25571759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45931.24472222223</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45838.65701388889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>45838.64005787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45839.39615740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44939.34498842592</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44267</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45932.65119212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45932.65006944445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44994.65835648148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45938.97168981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45938.97212962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>45841.5983912037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44980.39921296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45938.97099537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45091.30315972222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45790.53825231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45943.36789351852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44480.76550925926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45940.57583333334</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45810.58356481481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45940.56829861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45940.58193287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44576.40216435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44994</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44994</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44635</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45575.68791666667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>44789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45946.47375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45365.75003472222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44908.58217592593</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45699.64868055555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45153.65736111111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45474.59736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45769.63837962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45953</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45953</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45246.54465277777</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45246.54546296296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45246.54761574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45735.26765046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45867.63622685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45769.67452546296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45757.6337037037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45868</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45868</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45953</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45954.36375</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>45954.33204861111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45954.34552083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45871</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45701.64927083333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45647.63283564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45634.76754629629</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45406.80145833334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45959.49478009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45959.54793981482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45460.60703703704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45096</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45965.66885416667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45965.61924768519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45965.49458333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45965.68137731482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45273.66292824074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44953</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45965.64865740741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45965.65871527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45965.67322916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45965.63504629629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45965.62236111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45965.62333333334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45965.62857638889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45964.3387962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45964.35825231481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45965.65498842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44894.59141203704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45965.49116898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45964.33012731482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45964.33347222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44480</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45967.64871527778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45967.66217592593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45965.85481481482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>45971</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45666.525</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45701.6612037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44392.85039351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45792.67150462963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45783</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45973.35333333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45714.34769675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45978.29121527778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45979.28211805555</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45979.30042824074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45054.66675925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>46021.38961805555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>46021.38236111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44502</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44965.69575231482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46021.38599537037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45642.49179398148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>45310.58267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>45428</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>45737</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45415.60461805556</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>46029.57016203704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45194</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45733.44594907408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44364.51332175926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45587.40487268518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45194.41381944445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44916.63892361111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>44439</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44562.76653935185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45272.34440972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45616.45637731482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45414.44268518518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45994.35134259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44536.63636574074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45994</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45994.35961805555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45701.64342592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>46036.91364583333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44428.71333333333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45709</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45994.34493055556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45441.61608796296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>46038.31065972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45090</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>44908.58150462963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44908.58834490741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45996.31822916667</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         <v>45999.63747685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44624</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>45699.64099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>46001.64545138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>46045.31988425926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>46045.32553240741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46044.67179398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45659.54952546296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>46045.25947916666</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>46007.48770833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>46006.60467592593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45701.66731481482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>46006.73065972222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45302.66826388889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>46007.48497685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>46007.4759837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>46007.49010416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>46006.60607638889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44994.66158564815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45371.53494212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45204</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45709.45453703704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45537.57876157408</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>46013.58092592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>46010.51064814815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>46010.54671296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>45585.82836805555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>46055.55762731482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>46013.58743055556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>46013.59239583334</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>46010.51618055555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44868.53001157408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>46010.56065972222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45110</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>46021</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>45583.39986111111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45099</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45595.88284722222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45616.32519675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>46057</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>46057</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>46058.62762731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45733.42899305555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44966.88747685185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45348.59997685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44491.42230324074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44501</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45701.64657407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45335.60512731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45575.6853125</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45616.45694444444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44874</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44358.36768518519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44711.55232638889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44362.55450231482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45192</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44340.47023148148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45649.3993287037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45460.54476851852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45580.37579861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45170</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45707.64936342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45664.54805555556</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44438.42228009259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45436.32626157408</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44530.56768518518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45261</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45649.39497685185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45398</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44987</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45762</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45758.62664351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45104</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45638.69225694444</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>45687.39960648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44447</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45414.49146990741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45334.65681712963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44816.64356481482</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45016</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44655</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>45659.57023148148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45348.59662037037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45085</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>45414.46959490741</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44987</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44980.40400462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44908.57074074074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>45634.78091435185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>45371.62846064815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45218.52611111111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45414.48158564815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44651</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44844.69121527778</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45257</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45698.491875</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45159.37363425926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45558.70040509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45054.66798611111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45755</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44994.65613425926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45273.67059027778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45692.44277777777</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45705.51585648148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>44670</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44953.5828125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44651</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45671.60892361111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45159.37253472222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>45677.311875</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>45736.50564814815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>45748</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>45264</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>45701.66253472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44483.40997685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>45492</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45468.42847222222</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45776.6228125</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45544.68758101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45714.42650462963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45666.47810185186</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45719.44469907408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>45475.93836805555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>45789.60962962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>45365.70960648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>45793.46824074074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>45796.64030092592</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>45796.64222222222</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>45726.72484953704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -575,7 +575,7 @@
         <v>45153.67613425926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44257</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44503.56430555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45709</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44509.81533564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45198</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44358</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44888.44524305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45954.35556712963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45611.45408564815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45561.53494212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45754.47054398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46041.64318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>46045.31524305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45600.69313657407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45611.51743055556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44582</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44508.52543981482</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44693</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44827</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44621</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44292</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44491.4203125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44585</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44305</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44305</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44305</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44872</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44820</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44827</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44295.65550925926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44452.34550925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44503</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44687.41538194445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44868.32666666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44364.5219212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>44410.39246527778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44344</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44410.37859953703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44387.41002314815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44295.54322916667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44387.40186342593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>44364.46387731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44364.52861111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>44392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44879.30949074074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44879</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44879</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44516</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44789.66420138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44316</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44447.64010416667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44477</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>44382</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44516.96689814814</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44816</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>44257</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44483.40068287037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>44426.60497685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>44257</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>44371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44347</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44347</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>44347.66645833333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44418.828125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>44515</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44789.61635416667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44538.66128472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>44358.54587962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44364.50976851852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>44347</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>44728.63540509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44413</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>44298</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44698</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>44650</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>44827.36936342593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>44743</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>44538.67136574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>44469</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>44531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>44426.61268518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45432.71236111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45597.63475694445</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44476.63773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45664.55375</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>44606.50606481481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>44538</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>45110.47314814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>45687.39680555555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>45091.31003472222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45714.35248842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45596</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45707.67384259259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45355.6890162037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>45355.69916666667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>45665.5275925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>44435.34016203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44796.61420138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45138</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>45665.52453703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>45666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44903</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>44592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>45701.62771990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>45231</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>45208</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>45887.40015046296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>45596</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45335.60815972222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45261</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         <v>45887</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>45887.40671296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>45419.71474537037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45888</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>45889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>45889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45810.55401620371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45810.56383101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>45889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>45888.48699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45239.70010416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>45889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>45889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45475.56472222223</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>45278</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>45891</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>45701.65594907408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44887.57861111111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45236.73554398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45841.59689814815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45841.6000462963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45901.32498842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45105.43216435185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45898.41444444445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44504.50583333334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45792</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>45000.395</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45709</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45355.70752314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45414.50677083333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45699.6590625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45684.39659722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45902.46462962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>45170</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45170</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>45422</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45821.31873842593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45709</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44447.64655092593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45744.36665509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>45909</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45909.62396990741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>45910</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45910.50778935185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>44503.56642361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>45910.72665509259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45910</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44980.40126157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45917.34408564815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45916.63203703704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45916.64399305556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45916.65414351852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45916.68699074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45916.68157407407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45916.6724537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>45916.67841435185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45916.63689814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45831.37353009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45831.59747685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44831.35163194445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>45916.36207175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45916.37061342593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44743</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45916.69100694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44749</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>45831.38268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45831.39171296296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>45831.56633101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44417.81138888889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44417.81849537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45831.36127314815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45831.36613425926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45831.60769675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45918.45743055556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45831.3944675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45831.56945601852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45831.61119212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>45831.60594907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45831</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45919.64219907407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45831.56362268519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45831.59186342593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45918.50056712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>45918.65670138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45434.58760416666</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45218.52310185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>45922</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>45922</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45922.38804398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45922</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45925</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>45924.60186342592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45216</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>45216</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>45924</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>45194.40474537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45922</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45666.50974537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45925</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45924.5103125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>45924.51642361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45926.57173611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45926.5803125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45614.56631944444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45119.55380787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>44966.90767361111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>44480.34510416666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45926.57618055555</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45926.58402777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45839.55930555556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45931.25571759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45931.24472222223</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45838.65701388889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>45838.64005787037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45839.39615740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44939.34498842592</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44267</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45932.65119212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45932.65006944445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44994.65835648148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>45938.97168981482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45938.97212962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>45841.5983912037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44980.39921296296</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45938.97099537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45091.30315972222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45790.53825231481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45943.36789351852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44480.76550925926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45940.57583333334</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45810.58356481481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45940.56829861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16562,7 +16562,7 @@
         <v>45940.58193287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44576.40216435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44994</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44994</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44635</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45575.68791666667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>44789</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45946.47375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45365.75003472222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44908.58217592593</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45699.64868055555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45153.65736111111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45474.59736111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45769.63837962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45953</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45953</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>45077</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45246.54465277777</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45246.54546296296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>45246.54761574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45735.26765046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>45867.63622685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>45769.67452546296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45757.6337037037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45868</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45868</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45953</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45954.36375</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>45954.33204861111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>45954.34552083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45871</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45701.64927083333</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45647.63283564815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45634.76754629629</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45406.80145833334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45959.49478009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45959.54793981482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45460.60703703704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45096</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45965.66885416667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         <v>45965.61924768519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45965.49458333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45965.68137731482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45273.66292824074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>44953</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45965.64865740741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45965.65871527778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45965.67322916666</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45965.63504629629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45965.62236111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45965.62333333334</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45965.62857638889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45964.3387962963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45964.35825231481</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44600</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45965.65498842593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>44894.59141203704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45965.49116898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45964.33012731482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45964.33347222222</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44480</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45967.64871527778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45967.66217592593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>45965.85481481482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>45971</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20583,7 +20583,7 @@
         <v>45666.525</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>45701.6612037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44392.85039351852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>45792.67150462963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45783</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>45973.35333333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45714.34769675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45978.29121527778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45979.28211805555</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45979.30042824074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45054.66675925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>46021.38961805555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>46021.38236111111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44502</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44965.69575231482</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46021.38599537037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45642.49179398148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21577,7 +21577,7 @@
         <v>45310.58267361111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21634,7 +21634,7 @@
         <v>45428</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>45737</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>45415.60461805556</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21805,7 +21805,7 @@
         <v>46029.57016203704</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
         <v>45194</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21919,7 +21919,7 @@
         <v>45733.44594907408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>44364.51332175926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45587.40487268518</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45194.41381944445</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44916.63892361111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>44439</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>44562.76653935185</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>45272.34440972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>45616.45637731482</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>45414.44268518518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>45994.35134259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44536.63636574074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>45994</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>45994.35961805555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>45701.64342592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>46036.91364583333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44428.71333333333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>45709</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>45994.34493055556</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45441.61608796296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>46038.31065972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45090</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>44908.58150462963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44908.58834490741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45996.31822916667</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         <v>45999.63747685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44624</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>45699.64099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>46001.64545138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>46045.31988425926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>46045.32553240741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46044.67179398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45659.54952546296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>46045.25947916666</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>46007.48770833333</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>46006.60467592593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45701.66731481482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>46006.73065972222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>45302.66826388889</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24207,7 +24207,7 @@
         <v>46007.48497685185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24264,7 +24264,7 @@
         <v>46007.4759837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>46007.49010416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>46006.60607638889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44994.66158564815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45371.53494212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45204</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45709.45453703704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>45537.57876157408</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24725,7 +24725,7 @@
         <v>46013.58092592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24782,7 +24782,7 @@
         <v>46010.51064814815</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
         <v>46010.54671296296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24896,7 +24896,7 @@
         <v>45585.82836805555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         <v>46055.55762731482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>46013.58743055556</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
         <v>46013.59239583334</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>46010.51618055555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44868.53001157408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>46010.56065972222</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45110</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>46021</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>45583.39986111111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45099</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45595.88284722222</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45616.32519675926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>46057</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>46057</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>46058.62762731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45733.42899305555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44966.88747685185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45348.59997685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44572</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44491.42230324074</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44501</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26170,7 +26170,7 @@
         <v>45701.64657407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         <v>45335.60512731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>45575.6853125</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45616.45694444444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>44874</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>44358.36768518519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44711.55232638889</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>44362.55450231482</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45192</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44340.47023148148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>45649.3993287037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>45460.54476851852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>45580.37579861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>45170</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>45707.64936342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>45664.54805555556</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44438.42228009259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45436.32626157408</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44530.56768518518</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45261</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45649.39497685185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45398</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44987</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45762</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45758.62664351852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>45104</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45638.69225694444</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>45687.39960648148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>44447</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45414.49146990741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45334.65681712963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>44816.64356481482</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45016</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44655</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>45659.57023148148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45348.59662037037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45085</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>45414.46959490741</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>44987</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28418,7 +28418,7 @@
         <v>44980.40400462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44908.57074074074</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>45634.78091435185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28589,7 +28589,7 @@
         <v>45371.62846064815</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45218.52611111111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>45414.48158564815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44651</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44844.69121527778</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45257</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45698.491875</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45159.37363425926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45558.70040509259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45054.66798611111</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45755</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44994.65613425926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>45273.67059027778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45692.44277777777</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
         <v>45705.51585648148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>44670</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44953.5828125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44651</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>45671.60892361111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44490</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>45159.37253472222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>45251</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45096</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>45677.311875</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>45736.50564814815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>45748</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>45264</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>45701.66253472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44483.40997685185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>45492</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45468.42847222222</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45776.6228125</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>45544.68758101852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>45714.42650462963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30604,7 +30604,7 @@
         <v>45666.47810185186</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         <v>45719.44469907408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>45475.93836805555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30780,7 +30780,7 @@
         <v>45789.60962962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30837,7 +30837,7 @@
         <v>45365.70960648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30894,7 +30894,7 @@
         <v>45793.46824074074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>45796.64030092592</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>45796.64222222222</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>45726.72484953704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -575,7 +575,7 @@
         <v>45153.67613425926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44257</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44503.56430555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45709</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44509.81533564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45198</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44358</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44888.44524305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45611.45408564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45954.35556712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45561.53494212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45754.47054398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46041.64318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>46045.31524305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>46069.55527777778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45600.69313657407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45611.51743055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44582</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44508.52543981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44693</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44621</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44292</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>44491.4203125</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44585</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44305</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44305</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44305</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44872</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44820</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44295.65550925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44452.34550925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44687.41538194445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44868.32666666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44364.5219212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44410.39246527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>44410.37859953703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44344</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44387.41002314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44295.54322916667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44387.40186342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44364.46387731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44364.52861111111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44879.30949074074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44879</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44879</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44789.66420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44447.64010416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44257</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44516.96689814814</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44816</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44483.40068287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44426.60497685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44347</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44418.828125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44347.66645833333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44789.61635416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44538.66128472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44358.54587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44364.50976851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44347</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44728.63540509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44413</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44298</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44827.36936342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44743</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44538.67136574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44469</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426.61268518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45432.71236111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44476.63773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45597.63475694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45664.55375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44606.50606481481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45110.47314814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45687.39680555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45091.31003472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45714.35248842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45596</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45138</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45665.5275925926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45707.67384259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45355.6890162037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45355.69916666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45665.52453703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44903</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44435.34016203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44796.61420138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45231</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45701.62771990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45208</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45335.60815972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45596</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45261</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45419.71474537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45475.56472222223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45278</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45701.65594907408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44887.57861111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>45236.73554398148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>45887.40015046296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45792</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45709</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45887</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45105.43216435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44504.50583333334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45887.40671296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45000.395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45355.70752314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45414.50677083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45821.31873842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45888</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45699.6590625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45684.39659722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45170</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>45170</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>45889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>45889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45888.48699074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45891</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44447.64655092593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45831.37353009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45831.59747685185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45831.38268518518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45831.39171296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45831.56633101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45831.36127314815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45831.36613425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45831.60769675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45831.3944675926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45831.56945601852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45831.61119212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45831.60594907407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>45831</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45831.56362268519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45831.59186342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45841.59689814815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45841.6000462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44503.56642361111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44980.40126157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>45901.32498842593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45898.41444444445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44831.35163194445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44743</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44749</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44417.81138888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44417.81849537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45902.46462962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45422</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45839.55930555556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45838.65701388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45434.58760416666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45218.52310185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45838.64005787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45839.39615740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45510</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45709</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45744.36665509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45907</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45909</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45216</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45216</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45909.62396990741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45910</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45841.5983912037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45910.50778935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45194.40474537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45666.50974537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45790.53825231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45910.72665509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45810.58356481481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45614.56631944444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45119.55380787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44966.90767361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44480.34510416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>45917.34408564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45916.63203703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45916.64399305556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45916.65414351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45916.68699074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45916.68157407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45916.6724537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45916.67841435185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45916.63689814815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45916.36207175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45916.37061342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45916.69100694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45918.45743055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45919.64219907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45918.50056712963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44939.34498842592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44267</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45918.65670138889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45922</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45922</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45922.38804398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45922</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45925</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45924.60186342592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44994.65835648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45867.63622685185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45769.67452546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45924</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45924.5103125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45924.51642361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45868</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44980.39921296296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45926.57173611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45871</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45926.5803125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45091.30315972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45926.57618055555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45926.58402777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44480.76550925926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44576.40216435185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44994</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44635</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45931.25571759259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45931.24472222223</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45575.68791666667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45932.65119212963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45932.65006944445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45880</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45365.75003472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44908.58217592593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45699.64868055555</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45153.65736111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45792.67150462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45783</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45474.59736111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45769.63837962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45938.97168981482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45938.97212962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45246.54465277777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45246.54546296296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45246.54761574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45735.26765046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45938.97099537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45757.6337037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45943.36789351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45940.57583333334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45940.56829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45940.58193287037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45701.64927083333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45647.63283564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>45946.47375</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45634.76754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45371</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45406.80145833334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45460.60703703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45096</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45953</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
         <v>45953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>45273.66292824074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44600</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44894.59141203704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45954.36375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44480</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>45145</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45954.33204861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45954.34552083333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45666.525</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45701.6612037037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44392.85039351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45959.49478009259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45959.54793981482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45714.34769675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45965.66885416667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45965.61924768519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45965.49458333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45965.68137731482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45965.64865740741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45965.65871527778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45965.67322916666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45965.63504629629</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45965.62236111111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45965.62333333334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45965.62857638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45964.3387962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45964.35825231481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45054.66675925926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45965.65498842593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45965.49116898148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45964.33012731482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45964.33347222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44502</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44965.69575231482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45967.64871527778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>45967.66217592593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45965.85481481482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45971</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45642.49179398148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45310.58267361111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45428</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45737</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45973.35333333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45415.60461805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45978.29121527778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45979.28211805555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45979.30042824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45194</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45733.44594907408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44364.51332175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45587.40487268518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45194.41381944445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44916.63892361111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44562.76653935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45272.34440972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45616.45637731482</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45414.44268518518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44536.63636574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45701.64342592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44428.71333333333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45709</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45994.35134259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45441.61608796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45994</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45994.35961805555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>46036.91364583333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45090</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44908.58150462963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44908.58834490741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>45994.34493055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>46038.31065972222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44624</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>45699.64099537037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>45996.31822916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>45999.63747685185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>46001.64545138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45659.54952546296</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>46045.31988425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>46045.32553240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>46044.67179398148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45701.66731481482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45302.66826388889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>46045.25947916666</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>46007.48770833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44994.66158564815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>46006.60467592593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45371.53494212963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>46006.73065972222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>46007.48497685185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>46007.4759837963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>46007.49010416667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>46006.60607638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45709.45453703704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45537.57876157408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45585.82836805555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44868.53001157408</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45110</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>46013.58092592593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>46010.51064814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>46010.54671296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>46055.55762731482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>46013.58743055556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>46013.59239583334</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>46010.51618055555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>46010.56065972222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45583.39986111111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45099</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45595.88284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45616.32519675926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45733.42899305555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>46057</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>46057</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44966.88747685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>46058.62762731482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45348.59997685185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>46021.38961805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44572</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44491.42230324074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>46062.35990740741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46021.38599537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>46062.37520833333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>46021.38236111111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>46062.34153935185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>46021</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44501</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45701.64657407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45335.60512731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>46069.55851851852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45575.6853125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45616.45694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46069.45402777778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>46069.50259259259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>46069.34010416667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44874</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>46029.57016203704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>46071.30873842593</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>46071.41231481481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44358.36768518519</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44711.55232638889</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44362.55450231482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>45192</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44340.47023148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45649.3993287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>45460.54476851852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45580.37579861111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45170</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45707.64936342592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45664.54805555556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44438.42228009259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45436.32626157408</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>44530.56768518518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45261</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45649.39497685185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>45398</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44987</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45762</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45758.62664351852</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45638.69225694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45687.39960648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44447</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45414.49146990741</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45334.65681712963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44816.64356481482</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>45016</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44655</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45659.57023148148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45348.59662037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>45085</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45414.46959490741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44980.40400462963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44908.57074074074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45634.78091435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45371.62846064815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>45218.52611111111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>45414.48158564815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44651</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44844.69121527778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45257</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>45698.491875</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>45159.37363425926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45558.70040509259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45054.66798611111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45755</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44994.65613425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45273.67059027778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45692.44277777777</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45705.51585648148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44670</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44953.5828125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44651</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45671.60892361111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44490</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45159.37253472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45251</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45096</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45677.311875</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45736.50564814815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>45748</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45701.66253472222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44483.40997685185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45492</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45468.42847222222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45776.6228125</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45544.68758101852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45714.42650462963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45666.47810185186</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45719.44469907408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45475.93836805555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45789.60962962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45365.70960648148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45793.46824074074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45796.64030092592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45796.64222222222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45726.72484953704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45810.55401620371</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45810.56383101852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45239.70010416667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -575,7 +575,7 @@
         <v>45153.67613425926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44257</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44503.56430555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45709</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44509.81533564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45198</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44358</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44888.44524305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>45727</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45611.45408564815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45954.35556712963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45561.53494212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45754.47054398148</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>46041.64318287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>46045.31524305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>46069.55527777778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>45600.69313657407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45611.51743055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44582</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44508.52543981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44693</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44438</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44621</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44292</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>44491.4203125</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44585</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>44305</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>44305</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44305</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44872</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44820</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44295.65550925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44452.34550925926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44687.41538194445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44868.32666666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44364.5219212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44410.39246527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>44410.37859953703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44344</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44387.41002314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44295.54322916667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44387.40186342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44364.46387731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44364.52861111111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44879.30949074074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44879</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44879</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44789.66420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44447.64010416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44257</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44516.96689814814</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44816</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44483.40068287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44426.60497685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44347</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44418.828125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44347.66645833333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44789.61635416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44538.66128472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44358.54587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44364.50976851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44347</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44728.63540509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44413</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44298</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44827.36936342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44743</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44538.67136574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44469</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426.61268518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45432.71236111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44476.63773148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45597.63475694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>45664.55375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>44606.50606481481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>44538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>45110.47314814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45687.39680555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>45091.31003472222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45714.35248842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45596</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45138</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45665.5275925926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45707.67384259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45355.6890162037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45355.69916666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45665.52453703704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>44903</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44435.34016203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>44796.61420138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>44858</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45231</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45701.62771990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45208</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45335.60815972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45596</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45261</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45419.71474537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45475.56472222223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45278</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45701.65594907408</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44887.57861111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>45236.73554398148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>45887.40015046296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45792</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45709</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45887</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45105.43216435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>44504.50583333334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45887.40671296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45000.395</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>45355.70752314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>45414.50677083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>45821.31873842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45888</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45699.6590625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45684.39659722222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>45889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>45170</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>45170</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>45889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>45889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9952,7 +9952,7 @@
         <v>45889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45888.48699074074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>45889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>45889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>45889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>45889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10351,7 +10351,7 @@
         <v>45891</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10408,7 +10408,7 @@
         <v>44447.64655092593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45831.37353009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45831.59747685185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45831.38268518518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45831.39171296296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45831.56633101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45831.36127314815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45831.36613425926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45831.60769675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45831.3944675926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>45831.56945601852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>45831.61119212963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>45831.60594907407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>45831</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>45831.56362268519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>45831.59186342593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>45841.59689814815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>45841.6000462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44503.56642361111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44980.40126157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44789</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>45901.32498842593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45898.41444444445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44831.35163194445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44743</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44749</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44417.81138888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44417.81849537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>45902.46462962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45422</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>45839.55930555556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         <v>45838.65701388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45434.58760416666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45218.52310185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45838.64005787037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45839.39615740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45510</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45709</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45744.36665509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45907</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45909</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45216</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45216</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
         <v>45909.62396990741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45910</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45841.5983912037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>45910.50778935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45194.40474537037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45666.50974537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45790.53825231481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45910.72665509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45810.58356481481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45910</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45614.56631944444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45119.55380787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44966.90767361111</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44480.34510416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>45917.34408564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45916.63203703704</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>45916.64399305556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45916.65414351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45916.68699074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45916.68157407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45916.6724537037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45916.67841435185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>45916.63689814815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45916.36207175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45916.37061342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45916.69100694444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45918.45743055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45919.64219907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45918.50056712963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44939.34498842592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44267</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45918.65670138889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45922</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45922</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45922.38804398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45922</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45925</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45924.60186342592</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>44994.65835648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15182,7 +15182,7 @@
         <v>45867.63622685185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
         <v>45769.67452546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45924</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>45925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45924.5103125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45924.51642361111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45868</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>44980.39921296296</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>45868</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45926.57173611111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45871</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45926.5803125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45091.30315972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45926.57618055555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45926.58402777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44480.76550925926</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44576.40216435185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44994</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44994</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44635</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45931.25571759259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45931.24472222223</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45575.68791666667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44789</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45932.65119212963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45932.65006944445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45880</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45365.75003472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44908.58217592593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45699.64868055555</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45153.65736111111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45792.67150462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45783</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>45474.59736111111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>45769.63837962963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>45938.97168981482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45938.97212962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>45077</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45246.54465277777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45246.54546296296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45246.54761574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45735.26765046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45938.97099537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45757.6337037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45943.36789351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45940.57583333334</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45940.56829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45940.58193287037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>45701.64927083333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45647.63283564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>45946.47375</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45634.76754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45371</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45406.80145833334</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45460.60703703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45096</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18506,7 +18506,7 @@
         <v>45953</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
         <v>45953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>45273.66292824074</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>44953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44600</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44894.59141203704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45953</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45954.36375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44480</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>45145</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45954.33204861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>45954.34552083333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>45666.525</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>45701.6612037037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44392.85039351852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45959.49478009259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>45959.54793981482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45714.34769675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45965.66885416667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>45965.61924768519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>45965.49458333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45965.68137731482</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45965.64865740741</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45965.65871527778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45965.67322916666</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45965.63504629629</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45965.62236111111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
         <v>45965.62333333334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45965.62857638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45964.3387962963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45964.35825231481</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45054.66675925926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45965.65498842593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45965.49116898148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45964.33012731482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45964.33347222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44502</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44965.69575231482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45967.64871527778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>45967.66217592593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45965.85481481482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45971</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45642.49179398148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45310.58267361111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45428</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45737</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45973.35333333333</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45415.60461805556</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45978.29121527778</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45979.28211805555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45979.30042824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45194</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45733.44594907408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44364.51332175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45587.40487268518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45194.41381944445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44916.63892361111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44439</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44562.76653935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45272.34440972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45616.45637731482</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45414.44268518518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>44536.63636574074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45701.64342592593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>44428.71333333333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45709</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45994.35134259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45441.61608796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45994</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45994.35961805555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>46036.91364583333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45090</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44908.58150462963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44908.58834490741</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>45994.34493055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>46038.31065972222</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>44624</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>45699.64099537037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>45996.31822916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>45999.63747685185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>46001.64545138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45659.54952546296</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>46045.31988425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>46045.32553240741</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23484,7 +23484,7 @@
         <v>46044.67179398148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45701.66731481482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45302.66826388889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>46045.25947916666</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>46007.48770833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44994.66158564815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>46006.60467592593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45371.53494212963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>46006.73065972222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>46007.48497685185</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>46007.4759837963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>46007.49010416667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>46006.60607638889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45709.45453703704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45537.57876157408</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45585.82836805555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44868.53001157408</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45110</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>46013.58092592593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>46010.51064814815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>46010.54671296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>46055.55762731482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>46013.58743055556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>46013.59239583334</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>46010.51618055555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>46010.56065972222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45583.39986111111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45099</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45595.88284722222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45616.32519675926</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45733.42899305555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>46057</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>46057</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44966.88747685185</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>46058.62762731482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>45348.59997685185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>46021.38961805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44572</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44491.42230324074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>46062.35990740741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46021.38599537037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>46062.37520833333</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>46021.38236111111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>46062.34153935185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>46021</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>44501</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>45701.64657407408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45335.60512731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>46069.55851851852</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45575.6853125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>45616.45694444444</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46069.45402777778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>46069.50259259259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>46069.34010416667</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44874</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>46029.57016203704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>46071.30873842593</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>46071.41231481481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26922,7 +26922,7 @@
         <v>44358.36768518519</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26979,7 +26979,7 @@
         <v>44711.55232638889</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44362.55450231482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>45192</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44340.47023148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27217,7 +27217,7 @@
         <v>45649.3993287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27274,7 +27274,7 @@
         <v>45460.54476851852</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27331,7 +27331,7 @@
         <v>45580.37579861111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45170</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45707.64936342592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45664.54805555556</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44438.42228009259</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45436.32626157408</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>44530.56768518518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45261</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45649.39497685185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>45398</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44987</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45762</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45758.62664351852</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45638.69225694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45687.39960648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>44447</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45414.49146990741</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45334.65681712963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>44816.64356481482</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>45016</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44655</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45659.57023148148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45348.59662037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>45085</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45414.46959490741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44987</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44980.40400462963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44908.57074074074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45634.78091435185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>45371.62846064815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29118,7 +29118,7 @@
         <v>45218.52611111111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>45414.48158564815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44651</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44844.69121527778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45257</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>45698.491875</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>45159.37363425926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>45558.70040509259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>45054.66798611111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>45755</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44994.65613425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45273.67059027778</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45692.44277777777</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45705.51585648148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>44670</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>44953.5828125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>44651</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45671.60892361111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>44490</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45159.37253472222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45251</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45096</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45677.311875</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45736.50564814815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>45748</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30605,7 +30605,7 @@
         <v>45701.66253472222</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30662,7 +30662,7 @@
         <v>44483.40997685185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45492</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45468.42847222222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45776.6228125</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45544.68758101852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45714.42650462963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45666.47810185186</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45719.44469907408</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>45475.93836805555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45789.60962962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45365.70960648148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45793.46824074074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>45796.64030092592</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45796.64222222222</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45726.72484953704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45810.55401620371</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>45810.56383101852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45239.70010416667</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -575,7 +575,7 @@
         <v>45153.67613425926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44257</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44503.56430555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>45709</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44509.81533564815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45198</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44732</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>44468</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44358</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>44888.44524305555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44874</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>45727</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>45600.69313657407</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45922</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45754.47054398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45954.35556712963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45611.51743055556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>46041.64318287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>46045.31524305556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>46069.55527777778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45611.45408564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45561.53494212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44582</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44508.52543981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44438</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44693</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44827</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44621</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44476</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44292</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>44305</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44305</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44491.4203125</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44305</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44585</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44872</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44820</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>44827</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44295.65550925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44687.41538194445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44452.34550925926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44503</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>44868.32666666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>44364.5219212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>44410.39246527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>44410.37859953703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44344</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44387.41002314815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44295.54322916667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>44387.40186342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44364.46387731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>44364.52861111111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>44392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44879.30949074074</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44879</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44879</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>44516</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44789.66420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44316</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44447.64010416667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44477</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>44516.96689814814</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44257</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44816</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44483.40068287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>44426.60497685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>44347</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>44418.828125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44347</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44347.66645833333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44515</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44789.61635416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44538.66128472222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44358.54587962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44364.50976851852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44347</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44728.63540509259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44413</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44298</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>44698</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>44650</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>44827.36936342593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>44743</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44538.67136574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44469</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426.61268518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45748</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45246.54465277777</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45246.54546296296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45246.54761574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45414.46959490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44789</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44447.64655092593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44874</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>45371.53494212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>45419.71474537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>45216</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>45216</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44796.61420138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>45371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44392.85039351852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44916.63892361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45474.59736111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>45273.67059027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44476.63773148148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>44844.69121527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>44491.42230324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>45647.63283564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>45649.39497685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45475.56472222223</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>45218.52611111111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>45355.6890162037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>45558.70040509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>44908.58150462963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>44908.58834490741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>45888</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>45887.40671296296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44624</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45239.70010416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>45887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>45810.55401620371</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45810.56383101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45887.40015046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45510</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44966.88747685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45355.69916666667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>45888.48699074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>44435.34016203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45099</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45687.39960648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>45889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45792</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
         <v>45889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>45889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>45709</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>45821.31873842593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45891</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45841.59689814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45841.6000462963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45898.41444444445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45901.32498842593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45422</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>44490</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>45831.56633101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45831.39171296296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45831.60594907407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45831.56945601852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45831.56362268519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45831.59186342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45902.46462962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45831.36127314815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>45831.36613425926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45831.37353009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45831.3944675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45000.395</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45831</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>45831.60769675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>45831.61119212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>45831.59747685185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         <v>45831.38268518518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>44651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45709</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>44994</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>44994.65835648148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45575.68791666667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45907</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>45415.60461805556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45838.64005787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45909</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45839.39615740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45909.62396990741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45839.55930555556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45910.50778935185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45910</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>45910</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>45838.65701388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45273.66292824074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45744.36665509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45910.72665509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45841.5983912037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45790.53825231481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>44417.81138888889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>44417.81849537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45810.58356481481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45916.37061342593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>45916.69100694444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>45119.55380787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>45916.68157407407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>45664.55375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45916.6724537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45916.67841435185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45916.68699074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>44966.90767361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45916.64399305556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45204</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45192</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>45916.63689814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45916.65414351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45769.63837962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45916.36207175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45616.32519675926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45916.63203703704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45917.34408564815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45701.66731481482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45918.45743055556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45918.65670138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45769.67452546296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45918.50056712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45575.6853125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45868</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45616.45637731482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>45616.45694444444</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45868</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45919.64219907407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45922</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45096</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45922</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45922.38804398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45922</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45924.51642361111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45924.5103125</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45596</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45016</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         <v>45924.60186342592</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>45867.63622685185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45926.57173611111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45925</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45925</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>45926.58402777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45926.5803125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45926.57618055555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45634.76754629629</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15938,7 +15938,7 @@
         <v>45649.3993287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>45736.50564814815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45666.50974537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45871</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45931.25571759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45931.24472222223</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44816.64356481482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>45170</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>45692.44277777777</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45932.65119212963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44562.76653935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>45701.65594907408</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45701.66253472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45880</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45091.30315972222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44502</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45932.65006944445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45783</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45792.67150462963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45705.51585648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45707.67384259259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45687.39680555555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44894.59141203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44980.40126157407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45733.44594907408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>45334.65681712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45940.56829861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45940.58193287037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45938.97168981482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45938.97212962963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45938.97099537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45940.57583333334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45943.36789351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44908.58217592593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17916,7 +17916,7 @@
         <v>44480.34510416666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44358.36768518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45946.47375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44868.53001157408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>45264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>45153.65736111111</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45272.34440972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45737</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44858</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45580.37579861111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>45701.64657407408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45953</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45953</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45953</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>45090</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45757.6337037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44994.65613425926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45954.36375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45954.33204861111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>45954.34552083333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44483.40997685185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45959.49478009259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>45701.62771990741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>45959.54793981482</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44572</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45964.3387962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>45964.35825231481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45964.33012731482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>45964.33347222222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45965.65498842593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45965.85481481482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45965.64865740741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45965.66885416667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44987</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45965.49458333333</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45965.63504629629</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45965.49116898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45965.62333333334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44831.35163194445</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45965.61924768519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45965.68137731482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45965.67322916666</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45965.62236111111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45965.62857638889</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45965.65871527778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45967.66217592593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45967.64871527778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>45587.40487268518</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44530.56768518518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45335.60815972222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>45971</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45348.59997685185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45973.35333333333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45398</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45110</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45978.29121527778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45659.54952546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45138</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44504.50583333334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>45979.28211805555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>45979.30042824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45159.37253472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>44651</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>44503.56642361111</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>45583.39986111111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45436.32626157408</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>44606.50606481481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>45170</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>45104</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>45054.66798611111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>45994.35961805555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45994.34493055556</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45994.35134259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>45994</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45996.31822916667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>45999.63747685185</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>45105.43216435185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45091.31003472222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45194</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>46044.67179398148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44655</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45762</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>46001.64545138889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>46045.31988425926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>46045.32553240741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>46006.60607638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44576.40216435185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45758.62664351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>46006.73065972222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45434.58760416666</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>46045.25947916666</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>46006.60467592593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>46007.49010416667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>46007.48770833333</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45709.45453703704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45701.64342592593</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>46007.48497685185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45460.54476851852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>44447</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>46007.4759837963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>46010.56065972222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44743</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>46010.51064814815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>46010.54671296296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>46010.51618055555</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>45659.57023148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>46055.55762731482</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45699.64099537037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45159.37363425926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>46013.58092592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>46013.58743055556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>46013.59239583334</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44749</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45414.50677083333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45714.34769675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>46058.62762731482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>46062.34153935185</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>46057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>46062.37520833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>45278</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>46057</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>46062.35990740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45733.42899305555</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>46021.38599537037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>46021.38961805555</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44711.55232638889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>46021.38236111111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44670</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45302.66826388889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45310.58267361111</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45231</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45261</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>45261</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>46069.45402777778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>46069.55851851852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>46069.50259259259</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>46069.34010416667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>44939.34498842592</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>46071.41231481481</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>46029.57016203704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45537.57876157408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45194.40474537037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>46021</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26369,7 +26369,7 @@
         <v>44538</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26426,7 +26426,7 @@
         <v>46076.63746527778</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>44987</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>46076.60306712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45701.6612037037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45634.78091435185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45671.60892361111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>45735.26765046296</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>44980.40400462963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>45406.80145833334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44965.69575231482</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>44267</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>44908.57074074074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46077.27410879629</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44887.57861111111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>45194.41381944445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45335.60512731481</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>45257</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44953.5828125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44903</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>46071.30873842593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>44364.51332175926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>46038.31065972222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>44438.42228009259</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45348.59662037037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>44600</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45428</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>46036.91364583333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44428.71333333333</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44480</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>45614.56631944444</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>44501</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>44536.63636574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45096</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>44953</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>44980.39921296296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28543,7 +28543,7 @@
         <v>45145</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45642.49179398148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45077</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>45585.82836805555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45665.5275925926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45365.75003472222</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>44340.47023148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45208</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45595.88284722222</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45441.61608796296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45699.64868055555</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45699.6590625</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45698.491875</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45355.70752314815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44480.76550925926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45664.54805555556</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45371.62846064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45709</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45596</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45085</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45460.60703703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45414.48158564815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45666.525</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>44994.66158564815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>44635</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45701.64927083333</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44362.55450231482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45665.52453703704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45110.47314814815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45218.52310185185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45236.73554398148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45714.35248842592</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45684.39659722222</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45597.63475694445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45054.66675925926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45755</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45170</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45677.311875</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45707.64936342592</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45432.71236111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45638.69225694444</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45414.44268518518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45414.49146990741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>45110</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45776.6228125</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45468.42847222222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45492</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45666.47810185186</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>45475.93836805555</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>45714.42650462963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45544.68758101852</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45719.44469907408</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45789.60962962963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45365.70960648148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45796.64030092592</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45796.64222222222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45793.46824074074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45726.72484953704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
